--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/HMCTS/DEVLAB/WS/STS_HMCTS/CCD/ccd-api-test-automation-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925211B-349D-9E4A-883D-4347989BC5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2ACE7F-7363-8D45-9F37-6A36C38BE866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,9 @@
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AuthorisationCaseField!$A$1:$F$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AuthorisationCaseField!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="317">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>The defending party</t>
+  </si>
+  <si>
+    <t>caseworker-caa</t>
   </si>
 </sst>
 </file>
@@ -3659,7 +3662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB450B91-5B56-6749-90B2-76213C388519}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3893,10 +3896,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3953,31 +3956,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>42736</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="71">
         <v>42736</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" t="s">
         <v>271</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>58</v>
@@ -3992,13 +3995,13 @@
         <v>271</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="71">
         <v>42736</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>271</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>58</v>
@@ -4022,7 +4025,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>58</v>
@@ -4034,12 +4037,27 @@
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>267</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4056,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E21"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4130,14 +4148,14 @@
         <v>42736</v>
       </c>
       <c r="B4" s="52"/>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="59" t="s">
-        <v>275</v>
+      <c r="E4" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>123</v>
@@ -4154,8 +4172,8 @@
       <c r="D5" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E5" t="s">
-        <v>275</v>
+      <c r="E5" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>123</v>
@@ -4172,8 +4190,8 @@
       <c r="D6" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E6" t="s">
-        <v>275</v>
+      <c r="E6" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F6" s="73" t="s">
         <v>123</v>
@@ -4184,14 +4202,14 @@
         <v>42736</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" t="s">
         <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>305</v>
+      <c r="E7" s="59" t="s">
+        <v>275</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>123</v>
@@ -4208,8 +4226,8 @@
       <c r="D8" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>305</v>
+      <c r="E8" t="s">
+        <v>275</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>123</v>
@@ -4226,8 +4244,8 @@
       <c r="D9" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>305</v>
+      <c r="E9" t="s">
+        <v>275</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>123</v>
@@ -4239,13 +4257,13 @@
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>267</v>
+      <c r="E10" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F10" s="73" t="s">
         <v>123</v>
@@ -4257,13 +4275,13 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>267</v>
+      <c r="E11" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F11" s="73" t="s">
         <v>123</v>
@@ -4275,13 +4293,13 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>267</v>
+      <c r="E12" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F12" s="73" t="s">
         <v>123</v>
@@ -4293,13 +4311,13 @@
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>306</v>
+      <c r="E13" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F13" s="73" t="s">
         <v>123</v>
@@ -4311,13 +4329,13 @@
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>306</v>
+      <c r="E14" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>123</v>
@@ -4329,67 +4347,67 @@
       </c>
       <c r="B15" s="52"/>
       <c r="C15" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>306</v>
+      <c r="E15" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F15" s="73" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="86">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="24" t="s">
+    <row r="16" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>183</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="86">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="24" t="s">
+    <row r="17" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>184</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F17" s="73" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="86">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="24" t="s">
+    <row r="18" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>187</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F18" s="73" t="s">
         <v>123</v>
@@ -4406,8 +4424,8 @@
       <c r="D19" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>267</v>
+      <c r="E19" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F19" s="73" t="s">
         <v>123</v>
@@ -4424,8 +4442,8 @@
       <c r="D20" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>267</v>
+      <c r="E20" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F20" s="73" t="s">
         <v>123</v>
@@ -4442,10 +4460,64 @@
       <c r="D21" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F22" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="87"/>
+      <c r="C23" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="87"/>
+      <c r="C24" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="73" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4462,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4533,14 +4605,14 @@
       <c r="A4" s="71">
         <v>42736</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>275</v>
+      <c r="E4" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>123</v>
@@ -4556,8 +4628,8 @@
       <c r="D5" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E5" t="s">
-        <v>275</v>
+      <c r="E5" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>123</v>
@@ -4573,8 +4645,8 @@
       <c r="D6" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E6" t="s">
-        <v>275</v>
+      <c r="E6" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>123</v>
@@ -4590,8 +4662,8 @@
       <c r="D7" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E7" t="s">
-        <v>275</v>
+      <c r="E7" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>123</v>
@@ -4607,8 +4679,8 @@
       <c r="D8" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E8" t="s">
-        <v>275</v>
+      <c r="E8" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
@@ -4624,8 +4696,8 @@
       <c r="D9" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E9" t="s">
-        <v>275</v>
+      <c r="E9" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>123</v>
@@ -4635,14 +4707,14 @@
       <c r="A10" s="71">
         <v>42736</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" t="s">
         <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>305</v>
+      <c r="E10" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>123</v>
@@ -4658,8 +4730,8 @@
       <c r="D11" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>305</v>
+      <c r="E11" t="s">
+        <v>275</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>123</v>
@@ -4675,8 +4747,8 @@
       <c r="D12" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>305</v>
+      <c r="E12" t="s">
+        <v>275</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>123</v>
@@ -4692,8 +4764,8 @@
       <c r="D13" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>305</v>
+      <c r="E13" t="s">
+        <v>275</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>123</v>
@@ -4709,8 +4781,8 @@
       <c r="D14" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>305</v>
+      <c r="E14" t="s">
+        <v>275</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>123</v>
@@ -4726,8 +4798,8 @@
       <c r="D15" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>305</v>
+      <c r="E15" t="s">
+        <v>275</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>123</v>
@@ -4738,13 +4810,13 @@
         <v>42736</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>267</v>
+      <c r="E16" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>123</v>
@@ -4755,13 +4827,13 @@
         <v>42736</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>267</v>
+      <c r="E17" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>123</v>
@@ -4772,13 +4844,13 @@
         <v>42736</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>267</v>
+      <c r="E18" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>123</v>
@@ -4789,13 +4861,13 @@
         <v>42736</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>267</v>
+      <c r="E19" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>123</v>
@@ -4806,13 +4878,13 @@
         <v>42736</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>267</v>
+      <c r="E20" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>123</v>
@@ -4823,13 +4895,13 @@
         <v>42736</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>267</v>
+      <c r="E21" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>123</v>
@@ -4840,13 +4912,13 @@
         <v>42736</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>306</v>
+      <c r="E22" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>123</v>
@@ -4857,13 +4929,13 @@
         <v>42736</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D23" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>306</v>
+      <c r="E23" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>123</v>
@@ -4874,13 +4946,13 @@
         <v>42736</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>306</v>
+      <c r="E24" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>123</v>
@@ -4891,13 +4963,13 @@
         <v>42736</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>306</v>
+      <c r="E25" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>123</v>
@@ -4908,13 +4980,13 @@
         <v>42736</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>306</v>
+      <c r="E26" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>123</v>
@@ -4925,23 +4997,22 @@
         <v>42736</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>306</v>
+      <c r="E27" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="71">
         <v>42736</v>
       </c>
-      <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>271</v>
       </c>
@@ -4949,17 +5020,16 @@
         <v>188</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="71">
         <v>42736</v>
       </c>
-      <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
         <v>271</v>
       </c>
@@ -4967,17 +5037,16 @@
         <v>190</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="71">
         <v>42736</v>
       </c>
-      <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
         <v>271</v>
       </c>
@@ -4985,17 +5054,16 @@
         <v>192</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="71">
         <v>42736</v>
       </c>
-      <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
         <v>271</v>
       </c>
@@ -5003,17 +5071,16 @@
         <v>194</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="71">
         <v>42736</v>
       </c>
-      <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
         <v>271</v>
       </c>
@@ -5021,17 +5088,16 @@
         <v>196</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="71">
         <v>42736</v>
       </c>
-      <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
         <v>271</v>
       </c>
@@ -5039,7 +5105,7 @@
         <v>204</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>123</v>
@@ -5056,8 +5122,8 @@
       <c r="D34" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>267</v>
+      <c r="E34" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>123</v>
@@ -5074,8 +5140,8 @@
       <c r="D35" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>267</v>
+      <c r="E35" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>123</v>
@@ -5092,8 +5158,8 @@
       <c r="D36" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>267</v>
+      <c r="E36" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>123</v>
@@ -5110,8 +5176,8 @@
       <c r="D37" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>267</v>
+      <c r="E37" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>123</v>
@@ -5128,8 +5194,8 @@
       <c r="D38" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>267</v>
+      <c r="E38" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>123</v>
@@ -5146,30 +5212,120 @@
       <c r="D39" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="24"/>
+      <c r="A41" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="24"/>
+      <c r="A42" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="24"/>
+      <c r="A43" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="24"/>
+      <c r="A44" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="24"/>
+      <c r="A45" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="24"/>
@@ -5182,6 +5338,24 @@
     </row>
     <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5197,10 +5371,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="C83" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5263,18 +5437,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71">
         <v>42736</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>275</v>
+      <c r="E4" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>123</v>
@@ -5290,8 +5464,8 @@
       <c r="D5" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E5" t="s">
-        <v>275</v>
+      <c r="E5" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>123</v>
@@ -5307,8 +5481,8 @@
       <c r="D6" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E6" t="s">
-        <v>275</v>
+      <c r="E6" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>123</v>
@@ -5324,8 +5498,8 @@
       <c r="D7" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="E7" t="s">
-        <v>275</v>
+      <c r="E7" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>123</v>
@@ -5341,8 +5515,8 @@
       <c r="D8" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E8" t="s">
-        <v>275</v>
+      <c r="E8" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
@@ -5358,8 +5532,8 @@
       <c r="D9" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="E9" t="s">
-        <v>275</v>
+      <c r="E9" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>123</v>
@@ -5375,8 +5549,8 @@
       <c r="D10" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="E10" t="s">
-        <v>275</v>
+      <c r="E10" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>123</v>
@@ -5392,8 +5566,8 @@
       <c r="D11" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>275</v>
+      <c r="E11" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>123</v>
@@ -5409,8 +5583,8 @@
       <c r="D12" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="E12" t="s">
-        <v>275</v>
+      <c r="E12" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>123</v>
@@ -5426,8 +5600,8 @@
       <c r="D13" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
-        <v>275</v>
+      <c r="E13" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>123</v>
@@ -5443,8 +5617,8 @@
       <c r="D14" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E14" t="s">
-        <v>275</v>
+      <c r="E14" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>123</v>
@@ -5460,26 +5634,25 @@
       <c r="D15" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>275</v>
+      <c r="E15" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="71">
         <v>42736</v>
       </c>
-      <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>275</v>
+      <c r="E16" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>123</v>
@@ -5495,8 +5668,8 @@
       <c r="D17" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>275</v>
+      <c r="E17" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>123</v>
@@ -5512,8 +5685,8 @@
       <c r="D18" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>275</v>
+      <c r="E18" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>123</v>
@@ -5529,25 +5702,25 @@
       <c r="D19" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>275</v>
+      <c r="E19" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="71">
         <v>42736</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" t="s">
         <v>271</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>305</v>
+      <c r="E20" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>123</v>
@@ -5563,8 +5736,8 @@
       <c r="D21" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>305</v>
+      <c r="E21" t="s">
+        <v>275</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>123</v>
@@ -5580,8 +5753,8 @@
       <c r="D22" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>305</v>
+      <c r="E22" t="s">
+        <v>275</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>123</v>
@@ -5597,26 +5770,25 @@
       <c r="D23" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>305</v>
+      <c r="E23" t="s">
+        <v>275</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="71">
         <v>42736</v>
       </c>
-      <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>305</v>
+      <c r="E24" t="s">
+        <v>275</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>123</v>
@@ -5632,8 +5804,8 @@
       <c r="D25" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>305</v>
+      <c r="E25" t="s">
+        <v>275</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>123</v>
@@ -5649,8 +5821,8 @@
       <c r="D26" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>305</v>
+      <c r="E26" t="s">
+        <v>275</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>123</v>
@@ -5666,8 +5838,8 @@
       <c r="D27" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>305</v>
+      <c r="E27" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>123</v>
@@ -5683,8 +5855,8 @@
       <c r="D28" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>305</v>
+      <c r="E28" t="s">
+        <v>275</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>123</v>
@@ -5700,8 +5872,8 @@
       <c r="D29" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>305</v>
+      <c r="E29" t="s">
+        <v>275</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>123</v>
@@ -5717,8 +5889,8 @@
       <c r="D30" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>305</v>
+      <c r="E30" t="s">
+        <v>275</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>123</v>
@@ -5734,25 +5906,26 @@
       <c r="D31" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>305</v>
+      <c r="E31" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="71">
         <v>42736</v>
       </c>
+      <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>305</v>
+      <c r="E32" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>123</v>
@@ -5768,8 +5941,8 @@
       <c r="D33" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>305</v>
+      <c r="E33" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>123</v>
@@ -5783,13 +5956,13 @@
         <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>305</v>
+        <v>244</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5800,13 +5973,13 @@
         <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>305</v>
+        <v>255</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5816,14 +5989,14 @@
       <c r="C36" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D36" s="41" t="s">
-        <v>280</v>
+      <c r="D36" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5833,14 +6006,14 @@
       <c r="C37" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D37" s="41" t="s">
-        <v>281</v>
+      <c r="D37" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5850,14 +6023,14 @@
       <c r="C38" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D38" s="41" t="s">
-        <v>282</v>
+      <c r="D38" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5868,24 +6041,25 @@
         <v>271</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="71">
         <v>42736</v>
       </c>
+      <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>305</v>
@@ -5902,7 +6076,7 @@
         <v>271</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>305</v>
@@ -5919,7 +6093,7 @@
         <v>271</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>305</v>
@@ -5928,545 +6102,545 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="71">
         <v>42736</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="71">
         <v>42736</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="71">
         <v>42736</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="71">
         <v>42736</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>267</v>
+        <v>168</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="71">
         <v>42736</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="71">
         <v>42736</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>267</v>
+        <v>232</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="71">
         <v>42736</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>267</v>
+        <v>223</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="71">
         <v>42736</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>267</v>
+        <v>278</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="71">
         <v>42736</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>267</v>
+        <v>279</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="71">
         <v>42736</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>267</v>
+        <v>280</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="71">
         <v>42736</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>267</v>
+        <v>281</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="71">
         <v>42736</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="71">
         <v>42736</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>267</v>
+        <v>283</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="71">
         <v>42736</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>267</v>
+        <v>284</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F56" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="71">
         <v>42736</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D57" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>267</v>
+      <c r="E57" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="71">
         <v>42736</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D58" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>267</v>
+      <c r="E58" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F58" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="71">
         <v>42736</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E59" s="24" t="s">
-        <v>306</v>
+      <c r="E59" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F59" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="71">
         <v>42736</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="24" t="s">
-        <v>306</v>
+      <c r="E60" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="71">
         <v>42736</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="24" t="s">
-        <v>306</v>
+      <c r="E61" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="71">
         <v>42736</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D62" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>306</v>
+      <c r="E62" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="71">
         <v>42736</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D63" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="24" t="s">
-        <v>306</v>
+      <c r="E63" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="71">
         <v>42736</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D64" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="24" t="s">
-        <v>306</v>
+      <c r="E64" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="71">
         <v>42736</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D65" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="24" t="s">
-        <v>306</v>
+      <c r="E65" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F65" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="71">
         <v>42736</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D66" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="E66" s="24" t="s">
-        <v>306</v>
+      <c r="E66" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F66" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="71">
         <v>42736</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D67" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="24" t="s">
-        <v>306</v>
+      <c r="E67" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F67" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="71">
         <v>42736</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D68" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E68" s="24" t="s">
-        <v>306</v>
+      <c r="E68" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="71">
         <v>42736</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D69" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E69" s="24" t="s">
-        <v>306</v>
+      <c r="E69" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="71">
         <v>42736</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="E70" s="24" t="s">
-        <v>306</v>
+      <c r="E70" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="71">
         <v>42736</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D71" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>306</v>
+      <c r="E71" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="71">
         <v>42736</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D72" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="E72" s="24" t="s">
-        <v>306</v>
+      <c r="E72" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="71">
         <v>42736</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>306</v>
+        <v>244</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F73" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="71">
         <v>42736</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>306</v>
+        <v>255</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F74" s="24" t="s">
         <v>123</v>
@@ -6479,8 +6653,8 @@
       <c r="C75" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D75" s="41" t="s">
-        <v>280</v>
+      <c r="D75" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>306</v>
@@ -6496,8 +6670,8 @@
       <c r="C76" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D76" s="41" t="s">
-        <v>281</v>
+      <c r="D76" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>306</v>
@@ -6513,8 +6687,8 @@
       <c r="C77" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="41" t="s">
-        <v>282</v>
+      <c r="D77" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>306</v>
@@ -6531,7 +6705,7 @@
         <v>271</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>306</v>
@@ -6548,7 +6722,7 @@
         <v>271</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>306</v>
@@ -6565,7 +6739,7 @@
         <v>271</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>306</v>
@@ -6582,7 +6756,7 @@
         <v>271</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>306</v>
@@ -6598,11 +6772,11 @@
       <c r="C82" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D82" s="28" t="s">
-        <v>133</v>
+      <c r="D82" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F82" s="24" t="s">
         <v>123</v>
@@ -6615,11 +6789,11 @@
       <c r="C83" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>135</v>
+      <c r="D83" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F83" s="24" t="s">
         <v>123</v>
@@ -6632,11 +6806,11 @@
       <c r="C84" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>137</v>
+      <c r="D84" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F84" s="24" t="s">
         <v>123</v>
@@ -6650,10 +6824,10 @@
         <v>271</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F85" s="24" t="s">
         <v>123</v>
@@ -6666,11 +6840,11 @@
       <c r="C86" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="41" t="s">
-        <v>144</v>
+      <c r="D86" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F86" s="24" t="s">
         <v>123</v>
@@ -6684,10 +6858,10 @@
         <v>271</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>123</v>
@@ -6701,277 +6875,262 @@
         <v>271</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F88" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="71">
         <v>42736</v>
       </c>
-      <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F89" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="71">
         <v>42736</v>
       </c>
-      <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F90" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="71">
         <v>42736</v>
       </c>
-      <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="71">
         <v>42736</v>
       </c>
-      <c r="B92" s="14"/>
       <c r="C92" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D92" s="41" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F92" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="71">
         <v>42736</v>
       </c>
-      <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>235</v>
+      <c r="D93" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F93" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="71">
         <v>42736</v>
       </c>
-      <c r="B94" s="14"/>
       <c r="C94" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F94" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="71">
         <v>42736</v>
       </c>
-      <c r="B95" s="14"/>
       <c r="C95" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F95" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="71">
         <v>42736</v>
       </c>
-      <c r="B96" s="14"/>
       <c r="C96" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F96" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="71">
         <v>42736</v>
       </c>
-      <c r="B97" s="14"/>
       <c r="C97" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="71">
         <v>42736</v>
       </c>
-      <c r="B98" s="14"/>
       <c r="C98" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D98" s="41" t="s">
-        <v>280</v>
+      <c r="D98" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="E98" s="24" t="s">
         <v>309</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="71">
         <v>42736</v>
       </c>
-      <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D99" s="41" t="s">
-        <v>281</v>
+      <c r="D99" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>309</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="71">
         <v>42736</v>
       </c>
-      <c r="B100" s="14"/>
       <c r="C100" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D100" s="41" t="s">
-        <v>282</v>
+      <c r="D100" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>309</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="71">
         <v>42736</v>
       </c>
-      <c r="B101" s="14"/>
       <c r="C101" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>309</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="71">
         <v>42736</v>
       </c>
-      <c r="B102" s="14"/>
       <c r="C102" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>309</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="71">
         <v>42736</v>
       </c>
-      <c r="B103" s="14"/>
       <c r="C103" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>309</v>
@@ -6980,16 +7139,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="71">
         <v>42736</v>
       </c>
-      <c r="B104" s="14"/>
       <c r="C104" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>309</v>
@@ -7006,11 +7164,11 @@
       <c r="C105" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D105" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>267</v>
+      <c r="D105" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F105" s="24" t="s">
         <v>123</v>
@@ -7024,11 +7182,11 @@
       <c r="C106" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>267</v>
+      <c r="D106" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F106" s="24" t="s">
         <v>123</v>
@@ -7042,11 +7200,11 @@
       <c r="C107" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D107" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>267</v>
+      <c r="D107" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F107" s="24" t="s">
         <v>123</v>
@@ -7061,10 +7219,10 @@
         <v>271</v>
       </c>
       <c r="D108" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>267</v>
+        <v>168</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F108" s="24" t="s">
         <v>123</v>
@@ -7078,11 +7236,11 @@
       <c r="C109" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D109" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>267</v>
+      <c r="D109" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F109" s="24" t="s">
         <v>123</v>
@@ -7097,10 +7255,10 @@
         <v>271</v>
       </c>
       <c r="D110" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>267</v>
+        <v>232</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F110" s="24" t="s">
         <v>123</v>
@@ -7115,10 +7273,10 @@
         <v>271</v>
       </c>
       <c r="D111" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>267</v>
+        <v>223</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F111" s="24" t="s">
         <v>123</v>
@@ -7133,10 +7291,10 @@
         <v>271</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>267</v>
+        <v>278</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F112" s="24" t="s">
         <v>123</v>
@@ -7151,13 +7309,13 @@
         <v>271</v>
       </c>
       <c r="D113" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>267</v>
+        <v>279</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7169,13 +7327,13 @@
         <v>271</v>
       </c>
       <c r="D114" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>267</v>
+        <v>280</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7187,13 +7345,13 @@
         <v>271</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>267</v>
+        <v>281</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7204,14 +7362,14 @@
       <c r="C116" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D116" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>267</v>
+      <c r="D116" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7223,13 +7381,13 @@
         <v>271</v>
       </c>
       <c r="D117" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>267</v>
+        <v>283</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7241,13 +7399,13 @@
         <v>271</v>
       </c>
       <c r="D118" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>267</v>
+        <v>284</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7259,13 +7417,13 @@
         <v>271</v>
       </c>
       <c r="D119" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>267</v>
+        <v>244</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7277,10 +7435,10 @@
         <v>271</v>
       </c>
       <c r="D120" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>267</v>
+        <v>255</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>123</v>
@@ -7294,14 +7452,14 @@
       <c r="C121" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D121" s="41" t="s">
-        <v>280</v>
+      <c r="D121" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>267</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7312,14 +7470,14 @@
       <c r="C122" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D122" s="41" t="s">
-        <v>281</v>
+      <c r="D122" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>267</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7330,14 +7488,14 @@
       <c r="C123" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D123" s="41" t="s">
-        <v>282</v>
+      <c r="D123" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>267</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7349,13 +7507,13 @@
         <v>271</v>
       </c>
       <c r="D124" s="41" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>267</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7367,13 +7525,13 @@
         <v>271</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>267</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7385,7 +7543,7 @@
         <v>271</v>
       </c>
       <c r="D126" s="41" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>267</v>
@@ -7403,7 +7561,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="41" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="E127" s="14" t="s">
         <v>267</v>
@@ -7412,8 +7570,296 @@
         <v>123</v>
       </c>
     </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D128" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D129" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D130" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D137" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D139" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D141" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F111" xr:uid="{562AAE8F-3145-EE4D-AFA6-9179B8265258}">
+  <autoFilter ref="A1:F127" xr:uid="{562AAE8F-3145-EE4D-AFA6-9179B8265258}">
     <filterColumn colId="2">
       <filters>
         <filter val="BEFTA_CASETYPE_2_1"/>
@@ -7529,7 +7975,7 @@
         <v>42736</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="41" t="s">
         <v>271</v>
       </c>
       <c r="D4" t="s">
